--- a/49 - Prehodni pojavi v električnih krogih/Meritve/meritve (2).xlsx
+++ b/49 - Prehodni pojavi v električnih krogih/Meritve/meritve (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\archW\Desktop\faks\fizikalni-praktikum\49 - Prehodni pojavi v električnih krogih\Meritve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A286E1-B48F-4A92-8608-E5609D373B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F85C730-8BCA-473F-A456-18FAFE22C8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="453" windowWidth="15000" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>praznjenje</t>
   </si>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -418,7 +418,7 @@
     <col min="4" max="4" width="11.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -434,7 +434,7 @@
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -442,7 +442,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -459,7 +459,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -468,12 +468,12 @@
         <v>6.8000000000000001E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -483,8 +483,11 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>6.5</v>
       </c>
@@ -495,8 +498,18 @@
       <c r="C9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <f>F9/1000</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>10</v>
       </c>
@@ -507,8 +520,18 @@
       <c r="C10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F10">
+        <v>0.8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G14" si="1">F10/1000</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>12.5</v>
       </c>
@@ -519,8 +542,18 @@
       <c r="C11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F11">
+        <v>1.2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="H11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>15</v>
       </c>
@@ -531,8 +564,18 @@
       <c r="C12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>20</v>
       </c>
@@ -543,8 +586,18 @@
       <c r="C13">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F13">
+        <v>3.2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="H13">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>30</v>
       </c>
@@ -555,8 +608,18 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F14">
+        <v>4.2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>4.2000000000000006E-3</v>
+      </c>
+      <c r="H14">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>40</v>
       </c>
@@ -661,7 +724,7 @@
       <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>2</v>
       </c>
     </row>
@@ -670,6 +733,10 @@
         <v>3</v>
       </c>
       <c r="B29">
+        <f>(A29-3)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>15</v>
       </c>
     </row>
@@ -678,6 +745,10 @@
         <v>7</v>
       </c>
       <c r="B30">
+        <f t="shared" ref="B30:B37" si="2">(A30-3)/1000</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C30">
         <v>11</v>
       </c>
     </row>
@@ -686,6 +757,10 @@
         <v>10</v>
       </c>
       <c r="B31">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C31">
         <v>8</v>
       </c>
     </row>
@@ -694,6 +769,10 @@
         <v>13</v>
       </c>
       <c r="B32">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="C32">
         <v>7</v>
       </c>
     </row>
@@ -702,6 +781,10 @@
         <v>17</v>
       </c>
       <c r="B33">
+        <f t="shared" si="2"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="C33">
         <v>5</v>
       </c>
     </row>
@@ -710,6 +793,10 @@
         <v>20</v>
       </c>
       <c r="B34">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C34">
         <v>4</v>
       </c>
     </row>
@@ -718,6 +805,10 @@
         <v>23</v>
       </c>
       <c r="B35">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="C35">
         <v>3</v>
       </c>
     </row>
@@ -726,6 +817,10 @@
         <v>26</v>
       </c>
       <c r="B36">
+        <f t="shared" si="2"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="C36">
         <v>2.5</v>
       </c>
     </row>
@@ -734,6 +829,10 @@
         <v>30</v>
       </c>
       <c r="B37">
+        <f t="shared" si="2"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="C37">
         <v>2</v>
       </c>
     </row>
